--- a/natmiOut/OldD7/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H2">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>9.422114966676761</v>
+        <v>1.628421</v>
       </c>
       <c r="N2">
-        <v>9.422114966676761</v>
+        <v>4.885263</v>
       </c>
       <c r="O2">
-        <v>0.351447299020941</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P2">
-        <v>0.351447299020941</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q2">
-        <v>970.5049474055363</v>
+        <v>168.423575400305</v>
       </c>
       <c r="R2">
-        <v>970.5049474055363</v>
+        <v>1515.812178602745</v>
       </c>
       <c r="S2">
-        <v>0.09033614244697949</v>
+        <v>0.0120124215801676</v>
       </c>
       <c r="T2">
-        <v>0.09033614244697949</v>
+        <v>0.0120124215801676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H3">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J3">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.523375653680503</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N3">
-        <v>0.523375653680503</v>
+        <v>28.377195</v>
       </c>
       <c r="O3">
-        <v>0.01952204579437525</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P3">
-        <v>0.01952204579437525</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q3">
-        <v>53.90919799269738</v>
+        <v>978.3278078849919</v>
       </c>
       <c r="R3">
-        <v>53.90919799269738</v>
+        <v>8804.950270964926</v>
       </c>
       <c r="S3">
-        <v>0.005017953800327994</v>
+        <v>0.06977696586706268</v>
       </c>
       <c r="T3">
-        <v>0.005017953800327994</v>
+        <v>0.06977696586706267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H4">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="I4">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J4">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8639769525187</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N4">
-        <v>16.8639769525187</v>
+        <v>1.925473</v>
       </c>
       <c r="O4">
-        <v>0.6290306551846837</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P4">
-        <v>0.6290306551846837</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q4">
-        <v>1737.038140930787</v>
+        <v>66.38231083909946</v>
       </c>
       <c r="R4">
-        <v>1737.038140930787</v>
+        <v>597.4407975518951</v>
       </c>
       <c r="S4">
-        <v>0.1616862699715742</v>
+        <v>0.004734564631879606</v>
       </c>
       <c r="T4">
-        <v>0.1616862699715742</v>
+        <v>0.004734564631879605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>215.340949014042</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="H5">
-        <v>215.340949014042</v>
+        <v>310.282615</v>
       </c>
       <c r="I5">
-        <v>0.53737641218506</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="J5">
-        <v>0.53737641218506</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.422114966676761</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N5">
-        <v>9.422114966676761</v>
+        <v>65.894678</v>
       </c>
       <c r="O5">
-        <v>0.351447299020941</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P5">
-        <v>0.351447299020941</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q5">
-        <v>2028.967178643582</v>
+        <v>2271.774778269219</v>
       </c>
       <c r="R5">
-        <v>2028.967178643582</v>
+        <v>20445.97300442297</v>
       </c>
       <c r="S5">
-        <v>0.1888594886200032</v>
+        <v>0.1620290764336322</v>
       </c>
       <c r="T5">
-        <v>0.1888594886200032</v>
+        <v>0.1620290764336322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H6">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I6">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J6">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.523375653680503</v>
+        <v>1.628421</v>
       </c>
       <c r="N6">
-        <v>0.523375653680503</v>
+        <v>4.885263</v>
       </c>
       <c r="O6">
-        <v>0.01952204579437525</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P6">
-        <v>0.01952204579437525</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q6">
-        <v>112.7042099544041</v>
+        <v>351.951508448919</v>
       </c>
       <c r="R6">
-        <v>112.7042099544041</v>
+        <v>3167.563576040271</v>
       </c>
       <c r="S6">
-        <v>0.01049068692749381</v>
+        <v>0.02510212649990257</v>
       </c>
       <c r="T6">
-        <v>0.01049068692749381</v>
+        <v>0.02510212649990257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="H7">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="I7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.8639769525187</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N7">
-        <v>16.8639769525187</v>
+        <v>28.377195</v>
       </c>
       <c r="O7">
-        <v>0.6290306551846837</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P7">
-        <v>0.6290306551846837</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q7">
-        <v>3631.504801106309</v>
+        <v>2044.392816886035</v>
       </c>
       <c r="R7">
-        <v>3631.504801106309</v>
+        <v>18399.53535197431</v>
       </c>
       <c r="S7">
-        <v>0.338026236637563</v>
+        <v>0.1458115844740402</v>
       </c>
       <c r="T7">
-        <v>0.338026236637563</v>
+        <v>0.1458115844740401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.6543442203264</v>
+        <v>216.130539</v>
       </c>
       <c r="H8">
-        <v>59.6543442203264</v>
+        <v>648.391617</v>
       </c>
       <c r="I8">
-        <v>0.1488654973201646</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J8">
-        <v>0.1488654973201646</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.422114966676761</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N8">
-        <v>9.422114966676761</v>
+        <v>1.925473</v>
       </c>
       <c r="O8">
-        <v>0.351447299020941</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P8">
-        <v>0.351447299020941</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q8">
-        <v>562.0700895056247</v>
+        <v>138.717839106649</v>
       </c>
       <c r="R8">
-        <v>562.0700895056247</v>
+        <v>1248.460551959841</v>
       </c>
       <c r="S8">
-        <v>0.05231837695058098</v>
+        <v>0.009893728713919171</v>
       </c>
       <c r="T8">
-        <v>0.05231837695058098</v>
+        <v>0.009893728713919168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.6543442203264</v>
+        <v>216.130539</v>
       </c>
       <c r="H9">
-        <v>59.6543442203264</v>
+        <v>648.391617</v>
       </c>
       <c r="I9">
-        <v>0.1488654973201646</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="J9">
-        <v>0.1488654973201646</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.523375653680503</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N9">
-        <v>0.523375653680503</v>
+        <v>65.894678</v>
       </c>
       <c r="O9">
-        <v>0.01952204579437525</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P9">
-        <v>0.01952204579437525</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q9">
-        <v>31.22163140119507</v>
+        <v>4747.284091123815</v>
       </c>
       <c r="R9">
-        <v>31.22163140119507</v>
+        <v>42725.55682011433</v>
       </c>
       <c r="S9">
-        <v>0.0029061590558867</v>
+        <v>0.3385890468591654</v>
       </c>
       <c r="T9">
-        <v>0.0029061590558867</v>
+        <v>0.3385890468591653</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="H10">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="I10">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J10">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>16.8639769525187</v>
+        <v>1.628421</v>
       </c>
       <c r="N10">
-        <v>16.8639769525187</v>
+        <v>4.885263</v>
       </c>
       <c r="O10">
-        <v>0.6290306551846837</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="P10">
-        <v>0.6290306551846837</v>
+        <v>0.048329411442081</v>
       </c>
       <c r="Q10">
-        <v>1006.009486049202</v>
+        <v>116.606871783825</v>
       </c>
       <c r="R10">
-        <v>1006.009486049202</v>
+        <v>1049.461846054425</v>
       </c>
       <c r="S10">
-        <v>0.09364096131369694</v>
+        <v>0.008316715161061233</v>
       </c>
       <c r="T10">
-        <v>0.09364096131369694</v>
+        <v>0.008316715161061233</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.7282930447673</v>
+        <v>71.607325</v>
       </c>
       <c r="H11">
-        <v>22.7282930447673</v>
+        <v>214.821975</v>
       </c>
       <c r="I11">
-        <v>0.05671772427589365</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J11">
-        <v>0.05671772427589365</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.422114966676761</v>
+        <v>9.459065000000001</v>
       </c>
       <c r="N11">
-        <v>9.422114966676761</v>
+        <v>28.377195</v>
       </c>
       <c r="O11">
-        <v>0.351447299020941</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="P11">
-        <v>0.351447299020941</v>
+        <v>0.2807327123897247</v>
       </c>
       <c r="Q11">
-        <v>214.1485900641173</v>
+        <v>677.3383416511251</v>
       </c>
       <c r="R11">
-        <v>214.1485900641173</v>
+        <v>6096.045074860125</v>
       </c>
       <c r="S11">
-        <v>0.01993329100337728</v>
+        <v>0.04830958904052678</v>
       </c>
       <c r="T11">
-        <v>0.01993329100337728</v>
+        <v>0.04830958904052678</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.7282930447673</v>
+        <v>71.607325</v>
       </c>
       <c r="H12">
-        <v>22.7282930447673</v>
+        <v>214.821975</v>
       </c>
       <c r="I12">
-        <v>0.05671772427589365</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J12">
-        <v>0.05671772427589365</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.523375653680503</v>
+        <v>0.6418243333333334</v>
       </c>
       <c r="N12">
-        <v>0.523375653680503</v>
+        <v>1.925473</v>
       </c>
       <c r="O12">
-        <v>0.01952204579437525</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="P12">
-        <v>0.01952204579437525</v>
+        <v>0.01904850912583786</v>
       </c>
       <c r="Q12">
-        <v>11.89543522934712</v>
+        <v>45.95932362990834</v>
       </c>
       <c r="R12">
-        <v>11.89543522934712</v>
+        <v>413.6339126691751</v>
       </c>
       <c r="S12">
-        <v>0.001107246010666745</v>
+        <v>0.003277942352604978</v>
       </c>
       <c r="T12">
-        <v>0.001107246010666745</v>
+        <v>0.003277942352604978</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.7282930447673</v>
+        <v>71.607325</v>
       </c>
       <c r="H13">
-        <v>22.7282930447673</v>
+        <v>214.821975</v>
       </c>
       <c r="I13">
-        <v>0.05671772427589365</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="J13">
-        <v>0.05671772427589365</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.8639769525187</v>
+        <v>21.96489266666667</v>
       </c>
       <c r="N13">
-        <v>16.8639769525187</v>
+        <v>65.894678</v>
       </c>
       <c r="O13">
-        <v>0.6290306551846837</v>
+        <v>0.6518893670423564</v>
       </c>
       <c r="P13">
-        <v>0.6290306551846837</v>
+        <v>0.6518893670423563</v>
       </c>
       <c r="Q13">
-        <v>383.2894100770469</v>
+        <v>1572.847207772117</v>
       </c>
       <c r="R13">
-        <v>383.2894100770469</v>
+        <v>14155.62486994905</v>
       </c>
       <c r="S13">
-        <v>0.03567718726184962</v>
+        <v>0.1121796856291766</v>
       </c>
       <c r="T13">
-        <v>0.03567718726184962</v>
+        <v>0.1121796856291766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>24.953198</v>
+      </c>
+      <c r="H14">
+        <v>74.859594</v>
+      </c>
+      <c r="I14">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="J14">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.628421</v>
+      </c>
+      <c r="N14">
+        <v>4.885263</v>
+      </c>
+      <c r="O14">
+        <v>0.048329411442081</v>
+      </c>
+      <c r="P14">
+        <v>0.048329411442081</v>
+      </c>
+      <c r="Q14">
+        <v>40.63431164035801</v>
+      </c>
+      <c r="R14">
+        <v>365.708804763222</v>
+      </c>
+      <c r="S14">
+        <v>0.002898148200949593</v>
+      </c>
+      <c r="T14">
+        <v>0.002898148200949593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>24.953198</v>
+      </c>
+      <c r="H15">
+        <v>74.859594</v>
+      </c>
+      <c r="I15">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="J15">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.459065000000001</v>
+      </c>
+      <c r="N15">
+        <v>28.377195</v>
+      </c>
+      <c r="O15">
+        <v>0.2807327123897247</v>
+      </c>
+      <c r="P15">
+        <v>0.2807327123897247</v>
+      </c>
+      <c r="Q15">
+        <v>236.03392183987</v>
+      </c>
+      <c r="R15">
+        <v>2124.30529655883</v>
+      </c>
+      <c r="S15">
+        <v>0.01683457300809512</v>
+      </c>
+      <c r="T15">
+        <v>0.01683457300809512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>24.953198</v>
+      </c>
+      <c r="H16">
+        <v>74.859594</v>
+      </c>
+      <c r="I16">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="J16">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6418243333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.925473</v>
+      </c>
+      <c r="O16">
+        <v>0.01904850912583786</v>
+      </c>
+      <c r="P16">
+        <v>0.01904850912583786</v>
+      </c>
+      <c r="Q16">
+        <v>16.01556967088467</v>
+      </c>
+      <c r="R16">
+        <v>144.140127037962</v>
+      </c>
+      <c r="S16">
+        <v>0.001142273427434105</v>
+      </c>
+      <c r="T16">
+        <v>0.001142273427434104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>24.953198</v>
+      </c>
+      <c r="H17">
+        <v>74.859594</v>
+      </c>
+      <c r="I17">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="J17">
+        <v>0.05996655275686102</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.96489266666667</v>
+      </c>
+      <c r="N17">
+        <v>65.894678</v>
+      </c>
+      <c r="O17">
+        <v>0.6518893670423564</v>
+      </c>
+      <c r="P17">
+        <v>0.6518893670423563</v>
+      </c>
+      <c r="Q17">
+        <v>548.0943157600814</v>
+      </c>
+      <c r="R17">
+        <v>4932.848841840732</v>
+      </c>
+      <c r="S17">
+        <v>0.03909155812038221</v>
+      </c>
+      <c r="T17">
+        <v>0.0390915581203822</v>
       </c>
     </row>
   </sheetData>
